--- a/Project/document/데이터베이스 설계.xlsx
+++ b/Project/document/데이터베이스 설계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyung\Desktop\STUDY\SCHOOL\앱동\Project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uk\Desktop\Study\SCHOOL\AppDongWeb\AppDong_Web_Project_Team2\Project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB176C39-D531-4844-B096-10FCB09D7701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5971F-D462-432A-8603-DCEC7E309D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{92878852-D423-4BFC-AE82-DEEE81207FF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{92878852-D423-4BFC-AE82-DEEE81207FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>영업시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광역시/도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매장서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,19 +59,9 @@
     <t>세종특별자치시</t>
   </si>
   <si>
-    <t>(샐러드바 마감 21:00)</t>
-  </si>
-  <si>
-    <t>주말 11:00~21:00</t>
-  </si>
-  <si>
     <t>세종 홈플러스 주차장 이용</t>
   </si>
   <si>
-    <t>와인무제한,wifi,치킨투고,맥주선택주문,딜리버리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>330석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평일 11:00~21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,58 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>와인무제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wifi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨투고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜리버리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키즈룸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맥주무제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일_셀러드바_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주말_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주말_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주말_셀러드바_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역시도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세종 특별자치시 절재로 154 (어진동) 세종홈플러스 1층</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>광역시/도(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소(varchar)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,26 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>평일런치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평일저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주말,공휴일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미취학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가격(id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +123,62 @@
   </si>
   <si>
     <t>매장타입(퀸즈or딜리버리) (tinyint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역시/도(varchar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일(varchar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일_셀러드바_end(varchar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말(varchar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말_셀러드바_end(varchar)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와인무제한(tinyint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주무제한(tinyint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜리버리(tinyint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키즈룸(tinyint)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일런치(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일저녁(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말,공휴일(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초등(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미취학(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,21 +269,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -558,15 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -604,25 +542,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -643,6 +607,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -661,94 +628,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,105 +1029,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F77039-7900-4BB1-BAD8-2D013C06A2A0}">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.796875" customWidth="1"/>
-    <col min="2" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.296875" customWidth="1"/>
-    <col min="7" max="7" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:13" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:14" ht="7.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="G3" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="H4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="37"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1171,16 +1129,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="19"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1188,16 +1144,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="19" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="19"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1205,16 +1159,14 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -1224,302 +1176,257 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="13" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="30" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="D11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="F11" s="32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="34">
+      <c r="G11" s="30"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="N13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="34">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="34">
-        <v>3</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="34">
-        <v>4</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="35">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="21" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="31"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="36"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="30" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="11"/>
-      <c r="C37" s="12">
-        <f>+C24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13"/>
-      <c r="C39" s="15"/>
-    </row>
-    <row r="41" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="11"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="11"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="11"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="11"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="15"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
